--- a/Surface Settlement/Data Sets/Data set 4-Hangzhou 6-China.xlsx
+++ b/Surface Settlement/Data Sets/Data set 4-Hangzhou 6-China.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CooCoo\postdoc_um\projects\tunneling\database\data sets\data set 4-hangzhou metro 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Database\Surface Settlement\Data Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB063DE5-F198-43F5-9112-4F826B20938C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89FD20-C90D-4A50-9F87-5FA3CE3A5B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17415" yWindow="2775" windowWidth="19185" windowHeight="14970" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Tunnel Geometry</t>
   </si>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2979BD70-4207-4A09-8929-710D3F42E08F}">
   <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3125,2979 +3125,1109 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="2">
-        <v>351</v>
-      </c>
-      <c r="B52" s="17">
-        <v>15.321646956521743</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="2">
-        <v>59</v>
-      </c>
-      <c r="E52" s="2">
-        <v>255</v>
-      </c>
-      <c r="F52" s="2">
-        <v>210</v>
-      </c>
-      <c r="G52" s="2">
-        <v>19650</v>
-      </c>
-      <c r="H52" s="58">
-        <v>-0.23491137972277351</v>
-      </c>
-      <c r="I52" s="2">
-        <v>22327</v>
-      </c>
-      <c r="J52" s="2">
-        <v>2542</v>
-      </c>
-      <c r="K52" s="57">
-        <v>14.299999999998647</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="57"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2">
-        <v>359</v>
-      </c>
-      <c r="B53" s="17">
-        <v>15.368763265306123</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="2">
-        <v>59</v>
-      </c>
-      <c r="E53" s="2">
-        <v>230</v>
-      </c>
-      <c r="F53" s="2">
-        <v>180</v>
-      </c>
-      <c r="G53" s="2">
-        <v>20325</v>
-      </c>
-      <c r="H53" s="58">
-        <v>-0.20053440944962445</v>
-      </c>
-      <c r="I53" s="2">
-        <v>22697</v>
-      </c>
-      <c r="J53" s="2">
-        <v>2614</v>
-      </c>
-      <c r="K53" s="57">
-        <v>15.019999999999811</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="2">
-        <v>368</v>
-      </c>
-      <c r="B54" s="17">
-        <v>15.268355102040816</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="2">
-        <v>56</v>
-      </c>
-      <c r="E54" s="2">
-        <v>240</v>
-      </c>
-      <c r="F54" s="2">
-        <v>190</v>
-      </c>
-      <c r="G54" s="2">
-        <v>21900</v>
-      </c>
-      <c r="H54" s="58">
-        <v>-0.24064085899335086</v>
-      </c>
-      <c r="I54" s="2">
-        <v>24345</v>
-      </c>
-      <c r="J54" s="2">
-        <v>2714</v>
-      </c>
-      <c r="K54" s="57">
-        <v>16.580000000001149</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="57"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="2">
-        <v>376</v>
-      </c>
-      <c r="B55" s="17">
-        <v>15.167946938775509</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45</v>
-      </c>
-      <c r="E55" s="2">
-        <v>245</v>
-      </c>
-      <c r="F55" s="2">
-        <v>210</v>
-      </c>
-      <c r="G55" s="2">
-        <v>20900</v>
-      </c>
-      <c r="H55" s="58">
-        <v>-0.26928818086452871</v>
-      </c>
-      <c r="I55" s="2">
-        <v>23795</v>
-      </c>
-      <c r="J55" s="2">
-        <v>2418</v>
-      </c>
-      <c r="K55" s="57">
-        <v>17.259999999999387</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="57"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="2">
-        <v>384</v>
-      </c>
-      <c r="B56" s="17">
-        <v>15.067538775510203</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="2">
-        <v>57</v>
-      </c>
-      <c r="E56" s="2">
-        <v>230</v>
-      </c>
-      <c r="F56" s="2">
-        <v>190</v>
-      </c>
-      <c r="G56" s="2">
-        <v>19975</v>
-      </c>
-      <c r="H56" s="58">
-        <v>-0.13750960681335803</v>
-      </c>
-      <c r="I56" s="2">
-        <v>22558</v>
-      </c>
-      <c r="J56" s="2">
-        <v>2381</v>
-      </c>
-      <c r="K56" s="57">
-        <v>16.810000000001324</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="57"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="2">
-        <v>393</v>
-      </c>
-      <c r="B57" s="17">
-        <v>14.967130612244896</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="2">
-        <v>41</v>
-      </c>
-      <c r="E57" s="2">
-        <v>235</v>
-      </c>
-      <c r="F57" s="2">
-        <v>170</v>
-      </c>
-      <c r="G57" s="2">
-        <v>21875</v>
-      </c>
-      <c r="H57" s="58">
-        <v>-0.22345240720191156</v>
-      </c>
-      <c r="I57" s="2">
-        <v>23794</v>
-      </c>
-      <c r="J57" s="2">
-        <v>2602</v>
-      </c>
-      <c r="K57" s="57">
-        <v>16.180000000000305</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="2">
-        <v>451</v>
-      </c>
-      <c r="B58" s="17">
-        <v>15.32785665480427</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="2">
-        <v>60</v>
-      </c>
-      <c r="E58" s="2">
-        <v>215</v>
-      </c>
-      <c r="F58" s="2">
-        <v>150</v>
-      </c>
-      <c r="G58" s="2">
-        <v>20050</v>
-      </c>
-      <c r="H58" s="58">
-        <v>-0.20626391519006221</v>
-      </c>
-      <c r="I58" s="2">
-        <v>22577</v>
-      </c>
-      <c r="J58" s="2">
-        <v>3180</v>
-      </c>
-      <c r="K58" s="57">
-        <v>23.320000000000007</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="57"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="2">
-        <v>459</v>
-      </c>
-      <c r="B59" s="17">
-        <v>15.444900289855072</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="2">
-        <v>49</v>
-      </c>
-      <c r="E59" s="2">
-        <v>245</v>
-      </c>
-      <c r="F59" s="2">
-        <v>190</v>
-      </c>
-      <c r="G59" s="2">
-        <v>20050</v>
-      </c>
-      <c r="H59" s="58">
-        <v>-0.18334586862300742</v>
-      </c>
-      <c r="I59" s="2">
-        <v>22985</v>
-      </c>
-      <c r="J59" s="2">
-        <v>2966</v>
-      </c>
-      <c r="K59" s="57">
-        <v>42.220000000000368</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="57"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="2">
-        <v>468</v>
-      </c>
-      <c r="B60" s="17">
-        <v>15.558473788819876</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="2">
-        <v>47</v>
-      </c>
-      <c r="E60" s="2">
-        <v>225</v>
-      </c>
-      <c r="F60" s="2">
-        <v>180</v>
-      </c>
-      <c r="G60" s="2">
-        <v>19225</v>
-      </c>
-      <c r="H60" s="58">
-        <v>-0.14896869105850194</v>
-      </c>
-      <c r="I60" s="2">
-        <v>21434</v>
-      </c>
-      <c r="J60" s="2">
-        <v>2855</v>
-      </c>
-      <c r="K60" s="57">
-        <v>19.320000000000448</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="57"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="2">
-        <v>476</v>
-      </c>
-      <c r="B61" s="17">
-        <v>15.672047287784679</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45</v>
-      </c>
-      <c r="E61" s="2">
-        <v>220</v>
-      </c>
-      <c r="F61" s="2">
-        <v>150</v>
-      </c>
-      <c r="G61" s="2">
-        <v>18625</v>
-      </c>
-      <c r="H61" s="58">
-        <v>-0.22918189575410039</v>
-      </c>
-      <c r="I61" s="2">
-        <v>21299</v>
-      </c>
-      <c r="J61" s="2">
-        <v>2632</v>
-      </c>
-      <c r="K61" s="57">
-        <v>14.790000000000525</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="57"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2">
-        <v>484</v>
-      </c>
-      <c r="B62" s="17">
-        <v>15.785620786749483</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="2">
-        <v>50</v>
-      </c>
-      <c r="E62" s="2">
-        <v>230</v>
-      </c>
-      <c r="F62" s="2">
-        <v>180</v>
-      </c>
-      <c r="G62" s="2">
-        <v>20675</v>
-      </c>
-      <c r="H62" s="58">
-        <v>-0.22918189575410039</v>
-      </c>
-      <c r="I62" s="2">
-        <v>23943</v>
-      </c>
-      <c r="J62" s="2">
-        <v>2814</v>
-      </c>
-      <c r="K62" s="57">
-        <v>9.1900000000002535</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="57"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="2">
-        <v>493</v>
-      </c>
-      <c r="B63" s="17">
-        <v>15.899194285714287</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="2">
-        <v>58</v>
-      </c>
-      <c r="E63" s="2">
-        <v>205</v>
-      </c>
-      <c r="F63" s="2">
-        <v>140</v>
-      </c>
-      <c r="G63" s="2">
-        <v>18525</v>
-      </c>
-      <c r="H63" s="58">
-        <v>-0.22345240720191156</v>
-      </c>
-      <c r="I63" s="2">
-        <v>20404</v>
-      </c>
-      <c r="J63" s="2">
-        <v>2270</v>
-      </c>
-      <c r="K63" s="57">
-        <v>8.2700000000004437</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="57"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="2">
-        <v>501</v>
-      </c>
-      <c r="B64" s="17">
-        <v>16.000743746701847</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="2">
-        <v>47</v>
-      </c>
-      <c r="E64" s="2">
-        <v>235</v>
-      </c>
-      <c r="F64" s="2">
-        <v>160</v>
-      </c>
-      <c r="G64" s="2">
-        <v>20275</v>
-      </c>
-      <c r="H64" s="58">
-        <v>-0.20053440944962445</v>
-      </c>
-      <c r="I64" s="2">
-        <v>22742</v>
-      </c>
-      <c r="J64" s="2">
-        <v>2609</v>
-      </c>
-      <c r="K64" s="57">
-        <v>9.2299999999996274</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="57"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2">
-        <v>509</v>
-      </c>
-      <c r="B65" s="17">
-        <v>16.075530026385227</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="2">
-        <v>53</v>
-      </c>
-      <c r="E65" s="2">
-        <v>215</v>
-      </c>
-      <c r="F65" s="2">
-        <v>150</v>
-      </c>
-      <c r="G65" s="2">
-        <v>18700</v>
-      </c>
-      <c r="H65" s="58">
-        <v>-0.20053440944962445</v>
-      </c>
-      <c r="I65" s="2">
-        <v>20397</v>
-      </c>
-      <c r="J65" s="2">
-        <v>2272</v>
-      </c>
-      <c r="K65" s="57">
-        <v>11.30000000000031</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="57"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2">
-        <v>518</v>
-      </c>
-      <c r="B66" s="17">
-        <v>16.150316306068603</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="2">
-        <v>59</v>
-      </c>
-      <c r="E66" s="2">
-        <v>235</v>
-      </c>
-      <c r="F66" s="2">
-        <v>170</v>
-      </c>
-      <c r="G66" s="2">
-        <v>20400</v>
-      </c>
-      <c r="H66" s="58">
-        <v>-0.17761634752764668</v>
-      </c>
-      <c r="I66" s="2">
-        <v>22691</v>
-      </c>
-      <c r="J66" s="2">
-        <v>2631</v>
-      </c>
-      <c r="K66" s="57">
-        <v>10.820000000000718</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="57"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2">
-        <v>526</v>
-      </c>
-      <c r="B67" s="17">
-        <v>16.225102585751983</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="2">
-        <v>61</v>
-      </c>
-      <c r="E67" s="2">
-        <v>235</v>
-      </c>
-      <c r="F67" s="2">
-        <v>180</v>
-      </c>
-      <c r="G67" s="2">
-        <v>19625</v>
-      </c>
-      <c r="H67" s="58">
-        <v>-0.21772291418078793</v>
-      </c>
-      <c r="I67" s="2">
-        <v>21644</v>
-      </c>
-      <c r="J67" s="2">
-        <v>2639</v>
-      </c>
-      <c r="K67" s="57">
-        <v>11.85</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="57"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2">
-        <v>534</v>
-      </c>
-      <c r="B68" s="17">
-        <v>16.288110210970466</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2">
-        <v>60</v>
-      </c>
-      <c r="E68" s="2">
-        <v>225</v>
-      </c>
-      <c r="F68" s="2">
-        <v>160</v>
-      </c>
-      <c r="G68" s="2">
-        <v>19975</v>
-      </c>
-      <c r="H68" s="58">
-        <v>-0.22918189575410039</v>
-      </c>
-      <c r="I68" s="2">
-        <v>21501</v>
-      </c>
-      <c r="J68" s="2">
-        <v>2320</v>
-      </c>
-      <c r="K68" s="57">
-        <v>10.729999999999684</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="57"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="2">
-        <v>543</v>
-      </c>
-      <c r="B69" s="17">
-        <v>16.340245232067513</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="2">
-        <v>64</v>
-      </c>
-      <c r="E69" s="2">
-        <v>240</v>
-      </c>
-      <c r="F69" s="2">
-        <v>170</v>
-      </c>
-      <c r="G69" s="2">
-        <v>20450</v>
-      </c>
-      <c r="H69" s="58">
-        <v>-0.21772291418078793</v>
-      </c>
-      <c r="I69" s="2">
-        <v>22571</v>
-      </c>
-      <c r="J69" s="2">
-        <v>2837</v>
-      </c>
-      <c r="K69" s="57">
-        <v>9.4599999999998019</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="57"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2">
-        <v>551</v>
-      </c>
-      <c r="B70" s="17">
-        <v>16.392380253164557</v>
-      </c>
-      <c r="C70" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="2">
-        <v>58</v>
-      </c>
-      <c r="E70" s="2">
-        <v>240</v>
-      </c>
-      <c r="F70" s="2">
-        <v>190</v>
-      </c>
-      <c r="G70" s="2">
-        <v>22300</v>
-      </c>
-      <c r="H70" s="58">
-        <v>-0.23491137972277351</v>
-      </c>
-      <c r="I70" s="2">
-        <v>24093</v>
-      </c>
-      <c r="J70" s="2">
-        <v>2292</v>
-      </c>
-      <c r="K70" s="57">
-        <v>8.3900000000003416</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="57"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="2">
-        <v>559</v>
-      </c>
-      <c r="B71" s="17">
-        <v>16.444515274261601</v>
-      </c>
-      <c r="C71" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2">
-        <v>62</v>
-      </c>
-      <c r="E71" s="2">
-        <v>250</v>
-      </c>
-      <c r="F71" s="2">
-        <v>200</v>
-      </c>
-      <c r="G71" s="2">
-        <v>22500</v>
-      </c>
-      <c r="H71" s="58">
-        <v>-0.22918189575410039</v>
-      </c>
-      <c r="I71" s="2">
-        <v>25121</v>
-      </c>
-      <c r="J71" s="2">
-        <v>2274</v>
-      </c>
-      <c r="K71" s="57">
-        <v>7.7400000000000801</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="57"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="2">
-        <v>568</v>
-      </c>
-      <c r="B72" s="17">
-        <v>16.496650295358648</v>
-      </c>
-      <c r="C72" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="2">
-        <v>60</v>
-      </c>
-      <c r="E72" s="2">
-        <v>250</v>
-      </c>
-      <c r="F72" s="2">
-        <v>180</v>
-      </c>
-      <c r="G72" s="2">
-        <v>22025</v>
-      </c>
-      <c r="H72" s="58">
-        <v>-0.20053440944962445</v>
-      </c>
-      <c r="I72" s="2">
-        <v>24173</v>
-      </c>
-      <c r="J72" s="2">
-        <v>2541</v>
-      </c>
-      <c r="K72" s="57">
-        <v>5.62</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="57"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="2">
-        <v>576</v>
-      </c>
-      <c r="B73" s="17">
-        <v>16.535676687898089</v>
-      </c>
-      <c r="C73" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="2">
-        <v>54</v>
-      </c>
-      <c r="E73" s="2">
-        <v>255</v>
-      </c>
-      <c r="F73" s="2">
-        <v>170</v>
-      </c>
-      <c r="G73" s="2">
-        <v>23775</v>
-      </c>
-      <c r="H73" s="58">
-        <v>-0.20626391519006221</v>
-      </c>
-      <c r="I73" s="2">
-        <v>26287</v>
-      </c>
-      <c r="J73" s="2">
-        <v>2642</v>
-      </c>
-      <c r="K73" s="57">
-        <v>2.4100000000002453</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="57"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2">
-        <v>584</v>
-      </c>
-      <c r="B74" s="17">
-        <v>16.571005774946922</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="2">
-        <v>53</v>
-      </c>
-      <c r="E74" s="2">
-        <v>240</v>
-      </c>
-      <c r="F74" s="2">
-        <v>160</v>
-      </c>
-      <c r="G74" s="2">
-        <v>19825</v>
-      </c>
-      <c r="H74" s="58">
-        <v>-0.22345240720191156</v>
-      </c>
-      <c r="I74" s="2">
-        <v>21816</v>
-      </c>
-      <c r="J74" s="2">
-        <v>2184</v>
-      </c>
-      <c r="K74" s="57">
-        <v>8.5099999999993514</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="57"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2">
-        <v>593</v>
-      </c>
-      <c r="B75" s="17">
-        <v>16.606334861995755</v>
-      </c>
-      <c r="C75" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="2">
-        <v>61</v>
-      </c>
-      <c r="E75" s="2">
-        <v>235</v>
-      </c>
-      <c r="F75" s="2">
-        <v>170</v>
-      </c>
-      <c r="G75" s="2">
-        <v>20325</v>
-      </c>
-      <c r="H75" s="58">
-        <v>-0.29793536809660681</v>
-      </c>
-      <c r="I75" s="2">
-        <v>21790</v>
-      </c>
-      <c r="J75" s="2">
-        <v>2239</v>
-      </c>
-      <c r="K75" s="57">
-        <v>10.899999999999466</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="57"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="2">
-        <v>601</v>
-      </c>
-      <c r="B76" s="17">
-        <v>16.641663949044588</v>
-      </c>
-      <c r="C76" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="2">
-        <v>58</v>
-      </c>
-      <c r="E76" s="2">
-        <v>260</v>
-      </c>
-      <c r="F76" s="2">
-        <v>200</v>
-      </c>
-      <c r="G76" s="2">
-        <v>21150</v>
-      </c>
-      <c r="H76" s="58">
-        <v>-0.33804117675914114</v>
-      </c>
-      <c r="I76" s="2">
-        <v>23261</v>
-      </c>
-      <c r="J76" s="2">
-        <v>2503</v>
-      </c>
-      <c r="K76" s="57">
-        <v>7.7100000000003277</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="57"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="2">
-        <v>609</v>
-      </c>
-      <c r="B77" s="17">
-        <v>16.676191641791046</v>
-      </c>
-      <c r="C77" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="2">
-        <v>62</v>
-      </c>
-      <c r="E77" s="2">
-        <v>235</v>
-      </c>
-      <c r="F77" s="2">
-        <v>180</v>
-      </c>
-      <c r="G77" s="2">
-        <v>21875</v>
-      </c>
-      <c r="H77" s="58">
-        <v>-0.32658240636775138</v>
-      </c>
-      <c r="I77" s="2">
-        <v>23339</v>
-      </c>
-      <c r="J77" s="2">
-        <v>2558</v>
-      </c>
-      <c r="K77" s="57">
-        <v>6.2699999999997758</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="57"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="2">
-        <v>618</v>
-      </c>
-      <c r="B78" s="17">
-        <v>16.700072238805969</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="2">
-        <v>57</v>
-      </c>
-      <c r="E78" s="2">
-        <v>255</v>
-      </c>
-      <c r="F78" s="2">
-        <v>180</v>
-      </c>
-      <c r="G78" s="2">
-        <v>22275</v>
-      </c>
-      <c r="H78" s="58">
-        <v>-0.26355872680311504</v>
-      </c>
-      <c r="I78" s="2">
-        <v>24991</v>
-      </c>
-      <c r="J78" s="2">
-        <v>2581</v>
-      </c>
-      <c r="K78" s="57">
-        <v>6.9200000000000372</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="57"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="2">
-        <v>626</v>
-      </c>
-      <c r="B79" s="17">
-        <v>16.723952835820896</v>
-      </c>
-      <c r="C79" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="2">
-        <v>51</v>
-      </c>
-      <c r="E79" s="2">
-        <v>230</v>
-      </c>
-      <c r="F79" s="2">
-        <v>170</v>
-      </c>
-      <c r="G79" s="2">
-        <v>18950</v>
-      </c>
-      <c r="H79" s="58">
-        <v>-0.19480489969858039</v>
-      </c>
-      <c r="I79" s="2">
-        <v>20525</v>
-      </c>
-      <c r="J79" s="2">
-        <v>2434</v>
-      </c>
-      <c r="K79" s="57">
-        <v>11.249999999999538</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="57"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="2">
-        <v>634</v>
-      </c>
-      <c r="B80" s="17">
-        <v>16.747833432835819</v>
-      </c>
-      <c r="C80" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="2">
-        <v>62</v>
-      </c>
-      <c r="E80" s="2">
-        <v>260</v>
-      </c>
-      <c r="F80" s="2">
-        <v>190</v>
-      </c>
-      <c r="G80" s="2">
-        <v>20925</v>
-      </c>
-      <c r="H80" s="58">
-        <v>-0.25782926747071278</v>
-      </c>
-      <c r="I80" s="2">
-        <v>22830</v>
-      </c>
-      <c r="J80" s="2">
-        <v>2577</v>
-      </c>
-      <c r="K80" s="57">
-        <v>17.750000000000377</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="57"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="2">
-        <v>643</v>
-      </c>
-      <c r="B81" s="17">
-        <v>16.769119999999997</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="2">
-        <v>60</v>
-      </c>
-      <c r="E81" s="2">
-        <v>265</v>
-      </c>
-      <c r="F81" s="2">
-        <v>210</v>
-      </c>
-      <c r="G81" s="2">
-        <v>20550</v>
-      </c>
-      <c r="H81" s="58">
-        <v>-0.24064085899335086</v>
-      </c>
-      <c r="I81" s="2">
-        <v>22197</v>
-      </c>
-      <c r="J81" s="2">
-        <v>2222</v>
-      </c>
-      <c r="K81" s="57">
-        <v>15.120000000000466</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="57"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="2">
-        <v>651</v>
-      </c>
-      <c r="B82" s="17">
-        <v>16.741119999999999</v>
-      </c>
-      <c r="C82" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="2">
-        <v>57</v>
-      </c>
-      <c r="E82" s="2">
-        <v>250</v>
-      </c>
-      <c r="F82" s="2">
-        <v>180</v>
-      </c>
-      <c r="G82" s="2">
-        <v>20475</v>
-      </c>
-      <c r="H82" s="58">
-        <v>-5.7295760414500616E-2</v>
-      </c>
-      <c r="I82" s="2">
-        <v>22437</v>
-      </c>
-      <c r="J82" s="2">
-        <v>2319</v>
-      </c>
-      <c r="K82" s="57">
-        <v>12.730000000000352</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="57"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="2">
-        <v>659</v>
-      </c>
-      <c r="B83" s="17">
-        <v>16.71312</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="2">
-        <v>67</v>
-      </c>
-      <c r="E83" s="2">
-        <v>260</v>
-      </c>
-      <c r="F83" s="2">
-        <v>190</v>
-      </c>
-      <c r="G83" s="2">
-        <v>20775</v>
-      </c>
-      <c r="H83" s="58">
-        <v>1.7188733338262707E-2</v>
-      </c>
-      <c r="I83" s="2">
-        <v>22199</v>
-      </c>
-      <c r="J83" s="2">
-        <v>2679</v>
-      </c>
-      <c r="K83" s="57">
-        <v>11.750000000000149</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="57"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="2">
-        <v>676</v>
-      </c>
-      <c r="B84" s="17">
-        <v>16.657119999999999</v>
-      </c>
-      <c r="C84" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="2">
-        <v>64</v>
-      </c>
-      <c r="E84" s="2">
-        <v>265</v>
-      </c>
-      <c r="F84" s="2">
-        <v>190</v>
-      </c>
-      <c r="G84" s="2">
-        <v>23800</v>
-      </c>
-      <c r="H84" s="58">
-        <v>0.18334586862300742</v>
-      </c>
-      <c r="I84" s="2">
-        <v>25921</v>
-      </c>
-      <c r="J84" s="2">
-        <v>2283</v>
-      </c>
-      <c r="K84" s="57">
-        <v>11.519999999999975</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="57"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2">
-        <v>684</v>
-      </c>
-      <c r="B85" s="17">
-        <v>16.62547983870968</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="2">
-        <v>58</v>
-      </c>
-      <c r="E85" s="2">
-        <v>265</v>
-      </c>
-      <c r="F85" s="2">
-        <v>190</v>
-      </c>
-      <c r="G85" s="2">
-        <v>24200</v>
-      </c>
-      <c r="H85" s="58">
-        <v>0.28074707271608418</v>
-      </c>
-      <c r="I85" s="2">
-        <v>26430</v>
-      </c>
-      <c r="J85" s="2">
-        <v>2570</v>
-      </c>
-      <c r="K85" s="57">
-        <v>9.8500000000001364</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="57"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2">
-        <v>693</v>
-      </c>
-      <c r="B86" s="17">
-        <v>16.536810483870969</v>
-      </c>
-      <c r="C86" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="2">
-        <v>60</v>
-      </c>
-      <c r="E86" s="2">
-        <v>250</v>
-      </c>
-      <c r="F86" s="2">
-        <v>190</v>
-      </c>
-      <c r="G86" s="2">
-        <v>23275</v>
-      </c>
-      <c r="H86" s="58">
-        <v>0.18334586862300742</v>
-      </c>
-      <c r="I86" s="2">
-        <v>25967</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2390</v>
-      </c>
-      <c r="K86" s="57">
-        <v>7.6499999999999346</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="57"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2">
-        <v>701</v>
-      </c>
-      <c r="B87" s="17">
-        <v>16.448141129032258</v>
-      </c>
-      <c r="C87" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="2">
-        <v>62</v>
-      </c>
-      <c r="E87" s="2">
-        <v>265</v>
-      </c>
-      <c r="F87" s="2">
-        <v>190</v>
-      </c>
-      <c r="G87" s="2">
-        <v>24950</v>
-      </c>
-      <c r="H87" s="58">
-        <v>0.21772291418078793</v>
-      </c>
-      <c r="I87" s="2">
-        <v>27433</v>
-      </c>
-      <c r="J87" s="2">
-        <v>2285</v>
-      </c>
-      <c r="K87" s="57">
-        <v>5.5199999999997473</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="57"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="2">
-        <v>709</v>
-      </c>
-      <c r="B88" s="17">
-        <v>16.359471774193548</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="2">
-        <v>61</v>
-      </c>
-      <c r="E88" s="2">
-        <v>250</v>
-      </c>
-      <c r="F88" s="2">
-        <v>180</v>
-      </c>
-      <c r="G88" s="2">
-        <v>23950</v>
-      </c>
-      <c r="H88" s="58">
-        <v>0.26928818086452871</v>
-      </c>
-      <c r="I88" s="2">
-        <v>25965</v>
-      </c>
-      <c r="J88" s="2">
-        <v>2508</v>
-      </c>
-      <c r="K88" s="57">
-        <v>9.520000000000195</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="57"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="2">
-        <v>718</v>
-      </c>
-      <c r="B89" s="17">
-        <v>16.270802419354837</v>
-      </c>
-      <c r="C89" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="2">
-        <v>64</v>
-      </c>
-      <c r="E89" s="2">
-        <v>260</v>
-      </c>
-      <c r="F89" s="2">
-        <v>200</v>
-      </c>
-      <c r="G89" s="2">
-        <v>22700</v>
-      </c>
-      <c r="H89" s="58">
-        <v>0.22918189575410039</v>
-      </c>
-      <c r="I89" s="2">
-        <v>25259</v>
-      </c>
-      <c r="J89" s="2">
-        <v>2390</v>
-      </c>
-      <c r="K89" s="57">
-        <v>10.159999999999947</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="57"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="2">
-        <v>726</v>
-      </c>
-      <c r="B90" s="17">
-        <v>16.18592682926829</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D90" s="2">
-        <v>57</v>
-      </c>
-      <c r="E90" s="2">
-        <v>260</v>
-      </c>
-      <c r="F90" s="2">
-        <v>190</v>
-      </c>
-      <c r="G90" s="2">
-        <v>23875</v>
-      </c>
-      <c r="H90" s="58">
-        <v>0.23491137972277351</v>
-      </c>
-      <c r="I90" s="2">
-        <v>26531</v>
-      </c>
-      <c r="J90" s="2">
-        <v>2458</v>
-      </c>
-      <c r="K90" s="57">
-        <v>10.229999999999961</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="57"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2">
-        <v>734</v>
-      </c>
-      <c r="B91" s="17">
-        <v>16.135195121951217</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" s="2">
-        <v>60</v>
-      </c>
-      <c r="E91" s="2">
-        <v>255</v>
-      </c>
-      <c r="F91" s="2">
-        <v>200</v>
-      </c>
-      <c r="G91" s="2">
-        <v>23000</v>
-      </c>
-      <c r="H91" s="58">
-        <v>0.23491137972277351</v>
-      </c>
-      <c r="I91" s="2">
-        <v>25120</v>
-      </c>
-      <c r="J91" s="2">
-        <v>2033</v>
-      </c>
-      <c r="K91" s="57">
-        <v>10.440000000000005</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="57"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="2">
-        <v>743</v>
-      </c>
-      <c r="B92" s="17">
-        <v>16.084463414634143</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" s="2">
-        <v>65</v>
-      </c>
-      <c r="E92" s="2">
-        <v>265</v>
-      </c>
-      <c r="F92" s="2">
-        <v>200</v>
-      </c>
-      <c r="G92" s="2">
-        <v>23400</v>
-      </c>
-      <c r="H92" s="58">
-        <v>0.31512360985118482</v>
-      </c>
-      <c r="I92" s="2">
-        <v>25667</v>
-      </c>
-      <c r="J92" s="2">
-        <v>2258</v>
-      </c>
-      <c r="K92" s="57">
-        <v>9.520000000000195</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="57"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="2">
-        <v>751</v>
-      </c>
-      <c r="B93" s="17">
-        <v>16.03373170731707</v>
-      </c>
-      <c r="C93" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="2">
-        <v>58</v>
-      </c>
-      <c r="E93" s="2">
-        <v>255</v>
-      </c>
-      <c r="F93" s="2">
-        <v>190</v>
-      </c>
-      <c r="G93" s="2">
-        <v>23400</v>
-      </c>
-      <c r="H93" s="58">
-        <v>0.26355872680311504</v>
-      </c>
-      <c r="I93" s="2">
-        <v>25755</v>
-      </c>
-      <c r="J93" s="2">
-        <v>2243</v>
-      </c>
-      <c r="K93" s="57">
-        <v>10.120000000000573</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="57"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="2">
-        <v>768</v>
-      </c>
-      <c r="B94" s="17">
-        <v>15.9415206185567</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" s="2">
-        <v>64</v>
-      </c>
-      <c r="E94" s="2">
-        <v>250</v>
-      </c>
-      <c r="F94" s="2">
-        <v>190</v>
-      </c>
-      <c r="G94" s="2">
-        <v>23150</v>
-      </c>
-      <c r="H94" s="58">
-        <v>0.25782926747071278</v>
-      </c>
-      <c r="I94" s="2">
-        <v>25693</v>
-      </c>
-      <c r="J94" s="2">
-        <v>2306</v>
-      </c>
-      <c r="K94" s="57">
-        <v>11.830000000000673</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="57"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="2">
-        <v>776</v>
-      </c>
-      <c r="B95" s="17">
-        <v>15.942190721649483</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="2">
-        <v>66</v>
-      </c>
-      <c r="E95" s="2">
-        <v>260</v>
-      </c>
-      <c r="F95" s="2">
-        <v>190</v>
-      </c>
-      <c r="G95" s="2">
-        <v>22150</v>
-      </c>
-      <c r="H95" s="58">
-        <v>0.26355872680311504</v>
-      </c>
-      <c r="I95" s="2">
-        <v>24398</v>
-      </c>
-      <c r="J95" s="2">
-        <v>2469</v>
-      </c>
-      <c r="K95" s="57">
-        <v>15.520000000000422</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="57"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="2">
-        <v>784</v>
-      </c>
-      <c r="B96" s="17">
-        <v>15.942860824742267</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D96" s="2">
-        <v>53</v>
-      </c>
-      <c r="E96" s="2">
-        <v>255</v>
-      </c>
-      <c r="F96" s="2">
-        <v>220</v>
-      </c>
-      <c r="G96" s="2">
-        <v>23350</v>
-      </c>
-      <c r="H96" s="58">
-        <v>0.32085301131783051</v>
-      </c>
-      <c r="I96" s="2">
-        <v>25722</v>
-      </c>
-      <c r="J96" s="2">
-        <v>2270</v>
-      </c>
-      <c r="K96" s="57">
-        <v>16.969999999999708</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="57"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="2">
-        <v>793</v>
-      </c>
-      <c r="B97" s="17">
-        <v>15.943530927835051</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="2">
-        <v>62</v>
-      </c>
-      <c r="E97" s="2">
-        <v>225</v>
-      </c>
-      <c r="F97" s="2">
-        <v>190</v>
-      </c>
-      <c r="G97" s="2">
-        <v>22450</v>
-      </c>
-      <c r="H97" s="58">
-        <v>0.45262724215466094</v>
-      </c>
-      <c r="I97" s="2">
-        <v>24754</v>
-      </c>
-      <c r="J97" s="2">
-        <v>2312</v>
-      </c>
-      <c r="K97" s="57">
-        <v>18.740000000000201</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="57"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="2">
-        <v>801</v>
-      </c>
-      <c r="B98" s="17">
-        <v>15.86835673076923</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D98" s="2">
-        <v>57</v>
-      </c>
-      <c r="E98" s="2">
-        <v>255</v>
-      </c>
-      <c r="F98" s="2">
-        <v>220</v>
-      </c>
-      <c r="G98" s="2">
-        <v>24050</v>
-      </c>
-      <c r="H98" s="58">
-        <v>0.5442935316045926</v>
-      </c>
-      <c r="I98" s="2">
-        <v>26417</v>
-      </c>
-      <c r="J98" s="2">
-        <v>2500</v>
-      </c>
-      <c r="K98" s="57">
-        <v>15.339999999999243</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="57"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="2">
-        <v>809</v>
-      </c>
-      <c r="B99" s="17">
-        <v>15.616212499999998</v>
-      </c>
-      <c r="C99" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D99" s="2">
-        <v>55</v>
-      </c>
-      <c r="E99" s="2">
-        <v>265</v>
-      </c>
-      <c r="F99" s="2">
-        <v>200</v>
-      </c>
-      <c r="G99" s="2">
-        <v>23550</v>
-      </c>
-      <c r="H99" s="58">
-        <v>0.76198894023526931</v>
-      </c>
-      <c r="I99" s="2">
-        <v>25962</v>
-      </c>
-      <c r="J99" s="2">
-        <v>2263</v>
-      </c>
-      <c r="K99" s="57">
-        <v>13.090000000000046</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="57"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="2">
-        <v>818</v>
-      </c>
-      <c r="B100" s="17">
-        <v>15.364068269230767</v>
-      </c>
-      <c r="C100" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D100" s="2">
-        <v>51</v>
-      </c>
-      <c r="E100" s="2">
-        <v>265</v>
-      </c>
-      <c r="F100" s="2">
-        <v>190</v>
-      </c>
-      <c r="G100" s="2">
-        <v>21650</v>
-      </c>
-      <c r="H100" s="58">
-        <v>0.80781695994238989</v>
-      </c>
-      <c r="I100" s="2">
-        <v>23988</v>
-      </c>
-      <c r="J100" s="2">
-        <v>2208</v>
-      </c>
-      <c r="K100" s="57">
-        <v>16.949999999999577</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="57"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="2">
-        <v>826</v>
-      </c>
-      <c r="B101" s="17">
-        <v>15.111924038461535</v>
-      </c>
-      <c r="C101" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" s="2">
-        <v>53</v>
-      </c>
-      <c r="E101" s="2">
-        <v>265</v>
-      </c>
-      <c r="F101" s="2">
-        <v>190</v>
-      </c>
-      <c r="G101" s="2">
-        <v>23425</v>
-      </c>
-      <c r="H101" s="58">
-        <v>0.99684596995323538</v>
-      </c>
-      <c r="I101" s="2">
-        <v>25864</v>
-      </c>
-      <c r="J101" s="2">
-        <v>2443</v>
-      </c>
-      <c r="K101" s="57">
-        <v>16.370000000000218</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="57"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="2">
-        <v>834</v>
-      </c>
-      <c r="B102" s="17">
-        <v>14.862243521444691</v>
-      </c>
-      <c r="C102" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D102" s="2">
-        <v>53</v>
-      </c>
-      <c r="E102" s="2">
-        <v>260</v>
-      </c>
-      <c r="F102" s="2">
-        <v>200</v>
-      </c>
-      <c r="G102" s="2">
-        <v>21275</v>
-      </c>
-      <c r="H102" s="58">
-        <v>1.0999438188390329</v>
-      </c>
-      <c r="I102" s="2">
-        <v>23377</v>
-      </c>
-      <c r="J102" s="2">
-        <v>2400</v>
-      </c>
-      <c r="K102" s="57">
-        <v>16.610000000000014</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="57"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="2">
-        <v>843</v>
-      </c>
-      <c r="B103" s="17">
-        <v>14.627697246049657</v>
-      </c>
-      <c r="C103" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D103" s="2">
-        <v>54</v>
-      </c>
-      <c r="E103" s="2">
-        <v>275</v>
-      </c>
-      <c r="F103" s="2">
-        <v>210</v>
-      </c>
-      <c r="G103" s="2">
-        <v>22875</v>
-      </c>
-      <c r="H103" s="58">
-        <v>1.1400355397076687</v>
-      </c>
-      <c r="I103" s="2">
-        <v>25334</v>
-      </c>
-      <c r="J103" s="2">
-        <v>2551</v>
-      </c>
-      <c r="K103" s="57">
-        <v>16.220000000000599</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="57"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="2">
-        <v>851</v>
-      </c>
-      <c r="B104" s="17">
-        <v>14.393150970654624</v>
-      </c>
-      <c r="C104" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="2">
-        <v>53</v>
-      </c>
-      <c r="E104" s="2">
-        <v>270</v>
-      </c>
-      <c r="F104" s="2">
-        <v>200</v>
-      </c>
-      <c r="G104" s="2">
-        <v>22250</v>
-      </c>
-      <c r="H104" s="58">
-        <v>1.1743989847261915</v>
-      </c>
-      <c r="I104" s="2">
-        <v>24425</v>
-      </c>
-      <c r="J104" s="2">
-        <v>2626</v>
-      </c>
-      <c r="K104" s="57">
-        <v>13.139999999999899</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="57"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="2">
-        <v>859</v>
-      </c>
-      <c r="B105" s="17">
-        <v>14.158604695259589</v>
-      </c>
-      <c r="C105" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="2">
-        <v>59</v>
-      </c>
-      <c r="E105" s="2">
-        <v>275</v>
-      </c>
-      <c r="F105" s="2">
-        <v>210</v>
-      </c>
-      <c r="G105" s="2">
-        <v>23100</v>
-      </c>
-      <c r="H105" s="58">
-        <v>1.1801261440790223</v>
-      </c>
-      <c r="I105" s="2">
-        <v>25026</v>
-      </c>
-      <c r="J105" s="2">
-        <v>2475</v>
-      </c>
-      <c r="K105" s="57">
-        <v>15.7500000000006</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="57"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="2">
-        <v>868</v>
-      </c>
-      <c r="B106" s="17">
-        <v>13.924058419864554</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" s="2">
-        <v>63</v>
-      </c>
-      <c r="E106" s="2">
-        <v>250</v>
-      </c>
-      <c r="F106" s="2">
-        <v>190</v>
-      </c>
-      <c r="G106" s="2">
-        <v>20100</v>
-      </c>
-      <c r="H106" s="58">
-        <v>1.1629445957202214</v>
-      </c>
-      <c r="I106" s="2">
-        <v>22115</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1841</v>
-      </c>
-      <c r="K106" s="57">
-        <v>20.889999999999599</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="57"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="2">
-        <v>876</v>
-      </c>
-      <c r="B107" s="17">
-        <v>13.706098053097341</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" s="2">
-        <v>50</v>
-      </c>
-      <c r="E107" s="2">
-        <v>255</v>
-      </c>
-      <c r="F107" s="2">
-        <v>190</v>
-      </c>
-      <c r="G107" s="2">
-        <v>21600</v>
-      </c>
-      <c r="H107" s="58">
-        <v>1.2603038465035896</v>
-      </c>
-      <c r="I107" s="2">
-        <v>23560</v>
-      </c>
-      <c r="J107" s="2">
-        <v>1972</v>
-      </c>
-      <c r="K107" s="57">
-        <v>18.790000000000099</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="57"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="2">
-        <v>884</v>
-      </c>
-      <c r="B108" s="17">
-        <v>13.494912212389377</v>
-      </c>
-      <c r="C108" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" s="2">
-        <v>62</v>
-      </c>
-      <c r="E108" s="2">
-        <v>260</v>
-      </c>
-      <c r="F108" s="2">
-        <v>200</v>
-      </c>
-      <c r="G108" s="2">
-        <v>21050</v>
-      </c>
-      <c r="H108" s="58">
-        <v>1.1686718019018227</v>
-      </c>
-      <c r="I108" s="2">
-        <v>23219</v>
-      </c>
-      <c r="J108" s="2">
-        <v>2570</v>
-      </c>
-      <c r="K108" s="57">
-        <v>23.6200000000002</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="57"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="2">
-        <v>893</v>
-      </c>
-      <c r="B109" s="17">
-        <v>13.283726371681414</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="2">
-        <v>55</v>
-      </c>
-      <c r="E109" s="2">
-        <v>265</v>
-      </c>
-      <c r="F109" s="2">
-        <v>200</v>
-      </c>
-      <c r="G109" s="2">
-        <v>22275</v>
-      </c>
-      <c r="H109" s="58">
-        <v>1.1400355397076687</v>
-      </c>
-      <c r="I109" s="2">
-        <v>24262</v>
-      </c>
-      <c r="J109" s="2">
-        <v>2709</v>
-      </c>
-      <c r="K109" s="57">
-        <v>14.229999999999499</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="57"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="2">
-        <v>901</v>
-      </c>
-      <c r="B110" s="17">
-        <v>13.07254053097345</v>
-      </c>
-      <c r="C110" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D110" s="2">
-        <v>63</v>
-      </c>
-      <c r="E110" s="2">
-        <v>280</v>
-      </c>
-      <c r="F110" s="2">
-        <v>200</v>
-      </c>
-      <c r="G110" s="2">
-        <v>21300</v>
-      </c>
-      <c r="H110" s="58">
-        <v>1.1343082184545643</v>
-      </c>
-      <c r="I110" s="2">
-        <v>23134</v>
-      </c>
-      <c r="J110" s="2">
-        <v>2701</v>
-      </c>
-      <c r="K110" s="57">
-        <v>14.750000000000263</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="57"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="2">
-        <v>909</v>
-      </c>
-      <c r="B111" s="17">
-        <v>12.855653211845102</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" s="2">
-        <v>62</v>
-      </c>
-      <c r="E111" s="2">
-        <v>280</v>
-      </c>
-      <c r="F111" s="2">
-        <v>210</v>
-      </c>
-      <c r="G111" s="2">
-        <v>22700</v>
-      </c>
-      <c r="H111" s="58">
-        <v>1.1973074801652901</v>
-      </c>
-      <c r="I111" s="2">
-        <v>25019</v>
-      </c>
-      <c r="J111" s="2">
-        <v>2543</v>
-      </c>
-      <c r="K111" s="57">
-        <v>12.95</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="57"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="2">
-        <v>918</v>
-      </c>
-      <c r="B112" s="17">
-        <v>12.614459589977219</v>
-      </c>
-      <c r="C112" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="2">
-        <v>63</v>
-      </c>
-      <c r="E112" s="2">
-        <v>270</v>
-      </c>
-      <c r="F112" s="2">
-        <v>220</v>
-      </c>
-      <c r="G112" s="2">
-        <v>22025</v>
-      </c>
-      <c r="H112" s="58">
-        <v>1.1400355397076687</v>
-      </c>
-      <c r="I112" s="2">
-        <v>24191</v>
-      </c>
-      <c r="J112" s="2">
-        <v>2341</v>
-      </c>
-      <c r="K112" s="57">
-        <v>10.930000000000099</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="2">
-        <v>926</v>
-      </c>
-      <c r="B113" s="17">
-        <v>12.373265968109338</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="2">
-        <v>60</v>
-      </c>
-      <c r="E113" s="2">
-        <v>265</v>
-      </c>
-      <c r="F113" s="2">
-        <v>220</v>
-      </c>
-      <c r="G113" s="2">
-        <v>22000</v>
-      </c>
-      <c r="H113" s="58">
-        <v>1.0942163412873773</v>
-      </c>
-      <c r="I113" s="2">
-        <v>24063</v>
-      </c>
-      <c r="J113" s="2">
-        <v>2102</v>
-      </c>
-      <c r="K113" s="57">
-        <v>8.6200000000005197</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="57"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="2">
-        <v>934</v>
-      </c>
-      <c r="B114" s="17">
-        <v>12.132072346241458</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="2">
-        <v>62</v>
-      </c>
-      <c r="E114" s="2">
-        <v>275</v>
-      </c>
-      <c r="F114" s="2">
-        <v>230</v>
-      </c>
-      <c r="G114" s="2">
-        <v>22450</v>
-      </c>
-      <c r="H114" s="58">
-        <v>1.0884888418646941</v>
-      </c>
-      <c r="I114" s="2">
-        <v>24503</v>
-      </c>
-      <c r="J114" s="2">
-        <v>2496</v>
-      </c>
-      <c r="K114" s="57">
-        <v>9.2000000000007596</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="57"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="2">
-        <v>939</v>
-      </c>
-      <c r="B115" s="17">
-        <v>12.011475535307516</v>
-      </c>
-      <c r="C115" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" s="2">
-        <v>65</v>
-      </c>
-      <c r="E115" s="2">
-        <v>270</v>
-      </c>
-      <c r="F115" s="2">
-        <v>220</v>
-      </c>
-      <c r="G115" s="2">
-        <v>22700</v>
-      </c>
-      <c r="H115" s="58">
-        <v>1.1629445957202214</v>
-      </c>
-      <c r="I115" s="2">
-        <v>25087</v>
-      </c>
-      <c r="J115" s="2">
-        <v>2913</v>
-      </c>
-      <c r="K115" s="57">
-        <v>10.6000000000002</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="57"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="2">
-        <v>943</v>
-      </c>
-      <c r="B116" s="17">
-        <v>11.890878724373575</v>
-      </c>
-      <c r="C116" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="2">
-        <v>61</v>
-      </c>
-      <c r="E116" s="2">
-        <v>280</v>
-      </c>
-      <c r="F116" s="2">
-        <v>220</v>
-      </c>
-      <c r="G116" s="2">
-        <v>22875</v>
-      </c>
-      <c r="H116" s="58">
-        <v>1.1801261440790223</v>
-      </c>
-      <c r="I116" s="2">
-        <v>25445</v>
-      </c>
-      <c r="J116" s="2">
-        <v>2479</v>
-      </c>
-      <c r="K116" s="57">
-        <v>9.1300000000007504</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="2">
-        <v>947</v>
-      </c>
-      <c r="B117" s="17">
-        <v>11.799145190311418</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117" s="2">
-        <v>53</v>
-      </c>
-      <c r="E117" s="2">
-        <v>250</v>
-      </c>
-      <c r="F117" s="2">
-        <v>180</v>
-      </c>
-      <c r="G117" s="2">
-        <v>21650</v>
-      </c>
-      <c r="H117" s="58">
-        <v>1.2202155927448239</v>
-      </c>
-      <c r="I117" s="2">
-        <v>23561</v>
-      </c>
-      <c r="J117" s="2">
-        <v>2615</v>
-      </c>
-      <c r="K117" s="57">
-        <v>10.610000000000699</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="57"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="2">
-        <v>951</v>
-      </c>
-      <c r="B118" s="17">
-        <v>11.726653840830449</v>
-      </c>
-      <c r="C118" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D118" s="2">
-        <v>56</v>
-      </c>
-      <c r="E118" s="2">
-        <v>255</v>
-      </c>
-      <c r="F118" s="2">
-        <v>200</v>
-      </c>
-      <c r="G118" s="2">
-        <v>22050</v>
-      </c>
-      <c r="H118" s="58">
-        <v>1.1400355397076687</v>
-      </c>
-      <c r="I118" s="2">
-        <v>24087</v>
-      </c>
-      <c r="J118" s="2">
-        <v>2024</v>
-      </c>
-      <c r="K118" s="57">
-        <v>11.230000000000301</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="57"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="2">
-        <v>955</v>
-      </c>
-      <c r="B119" s="17">
-        <v>11.654162491349481</v>
-      </c>
-      <c r="C119" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119" s="2">
-        <v>57</v>
-      </c>
-      <c r="E119" s="2">
-        <v>275</v>
-      </c>
-      <c r="F119" s="2">
-        <v>230</v>
-      </c>
-      <c r="G119" s="2">
-        <v>22400</v>
-      </c>
-      <c r="H119" s="58">
-        <v>1.1113987078719074</v>
-      </c>
-      <c r="I119" s="2">
-        <v>24846</v>
-      </c>
-      <c r="J119" s="2">
-        <v>2555</v>
-      </c>
-      <c r="K119" s="57">
-        <v>12.519999999999399</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="57"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="2">
-        <v>960</v>
-      </c>
-      <c r="B120" s="17">
-        <v>11.697657301038063</v>
-      </c>
-      <c r="C120" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D120" s="2">
-        <v>54</v>
-      </c>
-      <c r="E120" s="2">
-        <v>250</v>
-      </c>
-      <c r="F120" s="2">
-        <v>200</v>
-      </c>
-      <c r="G120" s="2">
-        <v>20650</v>
-      </c>
-      <c r="H120" s="58">
-        <v>1.1743989847261915</v>
-      </c>
-      <c r="I120" s="2">
-        <v>22783</v>
-      </c>
-      <c r="J120" s="2">
-        <v>2048</v>
-      </c>
-      <c r="K120" s="57">
-        <v>15.719999999999956</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="57"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="2">
-        <v>964</v>
-      </c>
-      <c r="B121" s="17">
-        <v>11.625165951557094</v>
-      </c>
-      <c r="C121" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" s="2">
-        <v>55</v>
-      </c>
-      <c r="E121" s="2">
-        <v>280</v>
-      </c>
-      <c r="F121" s="2">
-        <v>210</v>
-      </c>
-      <c r="G121" s="2">
-        <v>22950</v>
-      </c>
-      <c r="H121" s="58">
-        <v>1.1400355397076687</v>
-      </c>
-      <c r="I121" s="2">
-        <v>25584</v>
-      </c>
-      <c r="J121" s="2">
-        <v>2594</v>
-      </c>
-      <c r="K121" s="57">
-        <v>18.170000000000464</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="57"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="2">
-        <v>968</v>
-      </c>
-      <c r="B122" s="17">
-        <v>11.552674602076126</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D122" s="2">
-        <v>59</v>
-      </c>
-      <c r="E122" s="2">
-        <v>255</v>
-      </c>
-      <c r="F122" s="2">
-        <v>210</v>
-      </c>
-      <c r="G122" s="2">
-        <v>23725</v>
-      </c>
-      <c r="H122" s="58">
-        <v>1.1973074801652901</v>
-      </c>
-      <c r="I122" s="2">
-        <v>25648</v>
-      </c>
-      <c r="J122" s="2">
-        <v>2783</v>
-      </c>
-      <c r="K122" s="57">
-        <v>21.000000000000796</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="57"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="2">
-        <v>972</v>
-      </c>
-      <c r="B123" s="17">
-        <v>11.480183252595157</v>
-      </c>
-      <c r="C123" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" s="2">
-        <v>52</v>
-      </c>
-      <c r="E123" s="2">
-        <v>245</v>
-      </c>
-      <c r="F123" s="2">
-        <v>190</v>
-      </c>
-      <c r="G123" s="2">
-        <v>21725</v>
-      </c>
-      <c r="H123" s="58">
-        <v>1.2144886008930376</v>
-      </c>
-      <c r="I123" s="2">
-        <v>23560</v>
-      </c>
-      <c r="J123" s="2">
-        <v>2128</v>
-      </c>
-      <c r="K123" s="57">
-        <v>22.769999999999513</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="57"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="2">
-        <v>976</v>
-      </c>
-      <c r="B124" s="17">
-        <v>11.399848000000002</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" s="2">
-        <v>57</v>
-      </c>
-      <c r="E124" s="2">
-        <v>265</v>
-      </c>
-      <c r="F124" s="2">
-        <v>200</v>
-      </c>
-      <c r="G124" s="2">
-        <v>22575</v>
-      </c>
-      <c r="H124" s="58">
-        <v>1.1743989847261915</v>
-      </c>
-      <c r="I124" s="2">
-        <v>24898</v>
-      </c>
-      <c r="J124" s="2">
-        <v>2796</v>
-      </c>
-      <c r="K124" s="57">
-        <v>21.180000000000199</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="57"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="2">
-        <v>980</v>
-      </c>
-      <c r="B125" s="17">
-        <v>11.291702545454548</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D125" s="2">
-        <v>56</v>
-      </c>
-      <c r="E125" s="2">
-        <v>275</v>
-      </c>
-      <c r="F125" s="2">
-        <v>210</v>
-      </c>
-      <c r="G125" s="2">
-        <v>22800</v>
-      </c>
-      <c r="H125" s="58">
-        <v>1.1228535080486324</v>
-      </c>
-      <c r="I125" s="2">
-        <v>25007</v>
-      </c>
-      <c r="J125" s="2">
-        <v>2751</v>
-      </c>
-      <c r="K125" s="57">
-        <v>19.449999999999967</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="57"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="2">
-        <v>985</v>
-      </c>
-      <c r="B126" s="17">
-        <v>11.183557090909094</v>
-      </c>
-      <c r="C126" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126" s="2">
-        <v>55</v>
-      </c>
-      <c r="E126" s="2">
-        <v>250</v>
-      </c>
-      <c r="F126" s="2">
-        <v>170</v>
-      </c>
-      <c r="G126" s="2">
-        <v>20925</v>
-      </c>
-      <c r="H126" s="58">
-        <v>0.83645895107229595</v>
-      </c>
-      <c r="I126" s="2">
-        <v>22711</v>
-      </c>
-      <c r="J126" s="2">
-        <v>2522</v>
-      </c>
-      <c r="K126" s="57">
-        <v>19.430000000000724</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="2">
-        <v>989</v>
-      </c>
-      <c r="B127" s="17">
-        <v>11.075411636363638</v>
-      </c>
-      <c r="C127" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D127" s="2">
-        <v>51</v>
-      </c>
-      <c r="E127" s="2">
-        <v>250</v>
-      </c>
-      <c r="F127" s="2">
-        <v>190</v>
-      </c>
-      <c r="G127" s="2">
-        <v>22525</v>
-      </c>
-      <c r="H127" s="58">
-        <v>0.61304144579918129</v>
-      </c>
-      <c r="I127" s="2">
-        <v>22962</v>
-      </c>
-      <c r="J127" s="2">
-        <v>2950</v>
-      </c>
-      <c r="K127" s="57">
-        <v>18.560000000000798</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="57"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="2">
-        <v>993</v>
-      </c>
-      <c r="B128" s="17">
-        <v>10.967266181818184</v>
-      </c>
-      <c r="C128" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D128" s="2">
-        <v>51</v>
-      </c>
-      <c r="E128" s="2">
-        <v>265</v>
-      </c>
-      <c r="F128" s="2">
-        <v>190</v>
-      </c>
-      <c r="G128" s="2">
-        <v>21625</v>
-      </c>
-      <c r="H128" s="58">
-        <v>0.63022815626174389</v>
-      </c>
-      <c r="I128" s="2">
-        <v>23785</v>
-      </c>
-      <c r="J128" s="2">
-        <v>2422</v>
-      </c>
-      <c r="K128" s="57">
-        <v>16.950000000000465</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="57"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="2">
-        <v>997</v>
-      </c>
-      <c r="B129" s="17">
-        <v>10.85912072727273</v>
-      </c>
-      <c r="C129" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D129" s="2">
-        <v>55</v>
-      </c>
-      <c r="E129" s="2">
-        <v>265</v>
-      </c>
-      <c r="F129" s="2">
-        <v>200</v>
-      </c>
-      <c r="G129" s="2">
-        <v>22775</v>
-      </c>
-      <c r="H129" s="58">
-        <v>0.5385644652780025</v>
-      </c>
-      <c r="I129" s="2">
-        <v>24677</v>
-      </c>
-      <c r="J129" s="2">
-        <v>2926</v>
-      </c>
-      <c r="K129" s="57">
-        <v>13.040000000000163</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="57"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B130" s="17">
-        <v>10.750975272727274</v>
-      </c>
-      <c r="C130" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="2">
-        <v>51</v>
-      </c>
-      <c r="E130" s="2">
-        <v>260</v>
-      </c>
-      <c r="F130" s="2">
-        <v>200</v>
-      </c>
-      <c r="G130" s="2">
-        <v>22425</v>
-      </c>
-      <c r="H130" s="58">
-        <v>0.45835645800043151</v>
-      </c>
-      <c r="I130" s="2">
-        <v>24343</v>
-      </c>
-      <c r="J130" s="2">
-        <v>2489</v>
-      </c>
-      <c r="K130" s="57">
-        <v>9.9799999999996558</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="58"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="57"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B131" s="17">
-        <v>10.64282981818182</v>
-      </c>
-      <c r="C131" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D131" s="2">
-        <v>57</v>
-      </c>
-      <c r="E131" s="2">
-        <v>260</v>
-      </c>
-      <c r="F131" s="2">
-        <v>200</v>
-      </c>
-      <c r="G131" s="2">
-        <v>22925</v>
-      </c>
-      <c r="H131" s="58">
-        <v>0.37814665416070325</v>
-      </c>
-      <c r="I131" s="2">
-        <v>25379</v>
-      </c>
-      <c r="J131" s="2">
-        <v>2551</v>
-      </c>
-      <c r="K131" s="57">
-        <v>9.6400000000000929</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="57"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B132" s="17">
-        <v>10.534684363636366</v>
-      </c>
-      <c r="C132" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D132" s="2">
-        <v>61</v>
-      </c>
-      <c r="E132" s="2">
-        <v>260</v>
-      </c>
-      <c r="F132" s="2">
-        <v>200</v>
-      </c>
-      <c r="G132" s="2">
-        <v>22525</v>
-      </c>
-      <c r="H132" s="58">
-        <v>0.30366478812600151</v>
-      </c>
-      <c r="I132" s="2">
-        <v>25336</v>
-      </c>
-      <c r="J132" s="2">
-        <v>2709</v>
-      </c>
-      <c r="K132" s="57">
-        <v>11.519999999999975</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="57"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B133" s="17">
-        <v>10.426538909090912</v>
-      </c>
-      <c r="C133" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="2">
-        <v>42</v>
-      </c>
-      <c r="E133" s="2">
-        <v>255</v>
-      </c>
-      <c r="F133" s="2">
-        <v>190</v>
-      </c>
-      <c r="G133" s="2">
-        <v>22675</v>
-      </c>
-      <c r="H133" s="58">
-        <v>0.20626391519006221</v>
-      </c>
-      <c r="I133" s="2">
-        <v>24763</v>
-      </c>
-      <c r="J133" s="2">
-        <v>2835</v>
-      </c>
-      <c r="K133" s="57">
-        <v>12.629999999999697</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="57"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B134" s="17">
-        <v>10.378504950495048</v>
-      </c>
-      <c r="C134" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="2">
-        <v>53</v>
-      </c>
-      <c r="E134" s="2">
-        <v>255</v>
-      </c>
-      <c r="F134" s="2">
-        <v>190</v>
-      </c>
-      <c r="G134" s="2">
-        <v>22200</v>
-      </c>
-      <c r="H134" s="58">
-        <v>6.3025332044181509E-2</v>
-      </c>
-      <c r="I134" s="2">
-        <v>24349</v>
-      </c>
-      <c r="J134" s="2">
-        <v>2756</v>
-      </c>
-      <c r="K134" s="57">
-        <v>14.590000000000103</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="57"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="2">
-        <v>1022</v>
-      </c>
-      <c r="B135" s="17">
-        <v>10.458207920792077</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D135" s="2">
-        <v>55</v>
-      </c>
-      <c r="E135" s="2">
-        <v>265</v>
-      </c>
-      <c r="F135" s="2">
-        <v>210</v>
-      </c>
-      <c r="G135" s="2">
-        <v>23000</v>
-      </c>
-      <c r="H135" s="58">
-        <v>5.7295760414500616E-2</v>
-      </c>
-      <c r="I135" s="2">
-        <v>25247</v>
-      </c>
-      <c r="J135" s="2">
-        <v>2571</v>
-      </c>
-      <c r="K135" s="57">
-        <v>12.649999999999828</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="57"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="2">
-        <v>1026</v>
-      </c>
-      <c r="B136" s="17">
-        <v>10.537910891089107</v>
-      </c>
-      <c r="C136" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D136" s="2">
-        <v>30</v>
-      </c>
-      <c r="E136" s="2">
-        <v>235</v>
-      </c>
-      <c r="F136" s="2">
-        <v>170</v>
-      </c>
-      <c r="G136" s="2">
-        <v>23425</v>
-      </c>
-      <c r="H136" s="58">
-        <v>-3.4377463582554162E-2</v>
-      </c>
-      <c r="I136" s="2">
-        <v>25848</v>
-      </c>
-      <c r="J136" s="2">
-        <v>1983</v>
-      </c>
-      <c r="K136" s="57">
-        <v>7.8499999999994685</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="57"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="19"/>

--- a/Surface Settlement/Data Sets/Data set 4-Hangzhou 6-China.xlsx
+++ b/Surface Settlement/Data Sets/Data set 4-Hangzhou 6-China.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Database\Surface Settlement\Data Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89FD20-C90D-4A50-9F87-5FA3CE3A5B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE6E56-F48E-4BF2-9BBC-D10118A8613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Tunnel Geometry</t>
   </si>
@@ -236,6 +236,31 @@
   </si>
   <si>
     <t>silty sand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(please cotact via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umgeomech@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to obtain the full data set)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -247,7 +272,7 @@
     <numFmt numFmtId="165" formatCode="0_ "/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +367,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF003366"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -872,7 +904,7 @@
   <dimension ref="B2:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,6 +1020,9 @@
       <c r="C16" s="37">
         <v>135</v>
       </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="15.75">
       <c r="B17" t="s">
@@ -1311,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2979BD70-4207-4A09-8929-710D3F42E08F}">
   <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
